--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1959,7 +1959,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5072,12 +5142,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6865,22 +6935,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6894,7 +6964,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7327,7 +7397,7 @@
         <v>2</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>6</v>
@@ -7348,11 +7418,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:w           ::    /</v>
+        <v>:w           ::R   /</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':w           ::    /',</v>
+        <v>':w           ::R   /',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -7978,7 +8048,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>2</v>
@@ -8023,11 +8093,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>:)  `   ::      ` /:</v>
+        <v>:)  `  R::      ` /:</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>':)  `   ::      ` /:',</v>
+        <v>':)  `  R::      ` /:',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -8110,7 +8180,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>6</v>
@@ -8173,11 +8243,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>:   `          w```:</v>
+        <v>:j  `          w```:</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>':   `          w```:',</v>
+        <v>':j  `          w```:',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -8668,22 +8738,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10471,22 +10541,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12274,22 +12344,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y1 A5:Y20 A2:H4 L2:Y4">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z1 A5:Z20 A2:H4 L2:Z4">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14077,22 +14147,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14105,7 +14175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -14143,10 +14213,10 @@
         <v>2</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>2</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>2</v>
@@ -14185,16 +14255,16 @@
       <c r="Y1" s="3"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>::::::::N:::::::::::</v>
+        <v>:::::::::N::::::::::</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'::::::::N:::::::::::',</v>
+        <v>':::::::::N::::::::::',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>12</v>
@@ -14218,13 +14288,13 @@
         <v>12</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>6</v>
@@ -14260,16 +14330,16 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:) (:::)      (:::::</v>
+        <v>() (:::)```   (:::::</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':) (:::)      (:::::',</v>
+        <v>'() (:::)```   (:::::',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>6</v>
@@ -14293,13 +14363,13 @@
         <v>6</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>6</v>
@@ -14335,11 +14405,11 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>:   (:)         ::::</v>
+        <v>\   (:) ```     ::::</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>':   (:)         ::::',</v>
+        <v>'\   (:) ```     ::::',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -14401,7 +14471,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -14410,11 +14480,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:               (:::</v>
+        <v>:               (::)</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':               (:::',</v>
+        <v>':               (::)',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -14476,7 +14546,7 @@
         <v>6</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -14485,11 +14555,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:                  /</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':                  /',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -14548,7 +14618,7 @@
         <v>6</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>2</v>
@@ -14560,11 +14630,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>:                  :</v>
+        <v>:                 /:</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>':                  :',</v>
+        <v>':                 /:',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -14572,7 +14642,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>6</v>
@@ -14590,19 +14660,19 @@
         <v>6</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>6</v>
@@ -14635,28 +14705,28 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>:                /::</v>
+        <v>:\     wwwww     /::</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>':                /::',</v>
+        <v>':\     wwwww     /::',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>6</v>
@@ -14665,19 +14735,19 @@
         <v>6</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M8" s="12" t="s">
         <v>6</v>
@@ -14710,28 +14780,28 @@
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
         <f t="shared" si="0"/>
-        <v>:             wwwwww</v>
+        <v>wwwww  w£££w  wwwwww</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="1"/>
-        <v>':             wwwwww',</v>
+        <v>'wwwww  w£££w  wwwwww',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>6</v>
@@ -14740,19 +14810,19 @@
         <v>6</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>6</v>
@@ -14785,49 +14855,49 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>:             weeeee</v>
+        <v>!!!!w  w£££w  weeeee</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>':             weeeee',</v>
+        <v>'!!!!w  w£££w  weeeee',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>6</v>
@@ -14860,34 +14930,34 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>:     w   w   weeeee</v>
+        <v>!!!!w  w£££w  weeeee</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>':     w   w   weeeee',</v>
+        <v>'!!!!w  w£££w  weeeee',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>30</v>
@@ -14902,7 +14972,7 @@
         <v>30</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>6</v>
@@ -14935,28 +15005,28 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:     wwwww   weeeee</v>
+        <v>!!!!w  wwwww  weeeee</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':     wwwww   weeeee',</v>
+        <v>'!!!!w  wwwww  weeeee',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>6</v>
@@ -15010,28 +15080,28 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:             weeeee</v>
+        <v>!!!!w         weeeee</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':             weeeee',</v>
+        <v>'!!!!w         weeeee',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>6</v>
@@ -15085,11 +15155,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:             wwwwww</v>
+        <v>wwwww         wwwwww</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':             wwwwww',</v>
+        <v>'wwwww         wwwwww',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -15097,7 +15167,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>6</v>
@@ -15112,11 +15182,11 @@
         <v>6</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="I14" s="12" t="s">
         <v>6</v>
       </c>
@@ -15124,10 +15194,10 @@
         <v>6</v>
       </c>
       <c r="K14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>6</v>
@@ -15160,16 +15230,16 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>:     B   B      (::</v>
+        <v>:)     B   B     (::</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>':     B   B      (::',</v>
+        <v>':)     B   B     (::',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>6</v>
@@ -15187,10 +15257,10 @@
         <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>6</v>
@@ -15199,10 +15269,10 @@
         <v>6</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>6</v>
@@ -15226,7 +15296,7 @@
         <v>6</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -15235,16 +15305,16 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>:     w   w        :</v>
+        <v>)      w   w       (</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>':     w   w        :',</v>
+        <v>')      w   w       (',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>6</v>
@@ -15262,22 +15332,22 @@
         <v>6</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="L16" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>6</v>
@@ -15301,7 +15371,7 @@
         <v>6</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -15310,11 +15380,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:     w```w        :</v>
+        <v>\      w`¬`w       /</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':     w```w        :',</v>
+        <v>'\      w`¬`w       /',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -15337,22 +15407,22 @@
         <v>2</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="L17" s="12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>6</v>
@@ -15385,11 +15455,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>:   /:w```w        :</v>
+        <v>:   /::w`¬`w       :</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>':   /:w```w        :',</v>
+        <v>':   /::w`¬`w       :',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -15412,25 +15482,25 @@
         <v>2</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>132</v>
       </c>
       <c r="J18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="L18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>6</v>
@@ -15460,11 +15530,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>:   ::w```w\       :</v>
+        <v>:   :::w`¬`w\      :</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>':   ::w```w\       :',</v>
+        <v>':   :::w`¬`w\      :',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -15487,28 +15557,28 @@
         <v>2</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="L19" s="12" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>6</v>
@@ -15535,11 +15605,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\ /::w`L`w:\     /:</v>
+        <v>:\ /:::w`L`w:\    /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\ /::w`L`w:\     /:',</v>
+        <v>':\ /:::w`L`w:\    /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -15589,10 +15659,10 @@
         <v>2</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R20" s="12" t="s">
         <v>2</v>
@@ -15610,11 +15680,11 @@
       <c r="Y20" s="7"/>
       <c r="AA20" t="str">
         <f t="shared" si="0"/>
-        <v>::::::::::::::::::::</v>
+        <v>:::::::::::::::\/:::</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="1"/>
-        <v>'::::::::::::::::::::',</v>
+        <v>':::::::::::::::\/:::',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -15880,12 +15950,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15899,7 +15969,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -18057,17 +18127,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19854,22 +19924,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21657,22 +21727,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23400,12 +23470,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25193,22 +25263,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26996,22 +27066,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27024,8 +27094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28798,22 +28868,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30600,22 +30670,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32403,22 +32473,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1959,77 +1959,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -5142,12 +5072,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6935,22 +6865,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8738,22 +8668,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10541,22 +10471,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12344,22 +12274,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y1 A5:Y20 A2:H4 L2:Y4">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z1 A5:Z20 A2:H4 L2:Z4">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14147,22 +14077,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14175,7 +14105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -15950,12 +15880,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18127,17 +18057,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19924,22 +19854,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="54" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21727,22 +21657,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23470,12 +23400,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25263,22 +25193,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27066,22 +26996,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27094,7 +27024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -27908,10 +27838,10 @@
         <v>132</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="T11" s="12" t="s">
         <v>22</v>
@@ -27923,11 +27853,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>w````ww     `````  E</v>
+        <v>w````ww     ```````E</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'w````ww     `````  E',</v>
+        <v>'w````ww     ```````E',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -28868,22 +28798,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30670,22 +30600,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32473,22 +32403,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -11914,10 +11914,10 @@
         <v>6</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>2</v>
@@ -11929,11 +11929,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\     ww`ww     :::</v>
+        <v>:\     ww`ww     ;=:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\     ww`ww     :::',</v>
+        <v>':\     ww`ww     ;=:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -12302,7 +12302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -12595,7 +12595,7 @@
         <v>12</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>13</v>
@@ -12607,11 +12607,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:)j(:::) j (:::::)j(</v>
+        <v>:)j(:::) j (:::::)_(</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':)j(:::) j (:::::)j(',</v>
+        <v>':)j(:::) j (:::::)_(',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -13078,7 +13078,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>30</v>
@@ -13132,11 +13132,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:\   ww¬¬¬¬¬ww    /:</v>
+        <v>:\  ,ww¬¬¬¬¬ww    /:</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':\   ww¬¬¬¬¬ww    /:',</v>
+        <v>':\  ,ww¬¬¬¬¬ww    /:',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -27024,7 +27024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>

--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="230">
   <si>
     <t>width</t>
   </si>
@@ -1727,6 +1727,9 @@
   <si>
     <t>\</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
 </sst>
 </file>
 
@@ -12302,7 +12305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -21685,7 +21688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -23013,7 +23016,7 @@
         <v>2</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>6</v>
@@ -23040,11 +23043,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>:  /:\     /:    /::</v>
+        <v>:  /:\     /:H   /::</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>':  /:\     /:    /::',</v>
+        <v>':  /:\     /:H   /::',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">

--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -1962,7 +1962,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5075,12 +5131,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6868,22 +6924,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8671,22 +8727,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10474,22 +10530,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12277,22 +12333,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y1 A5:Y20 A2:H4 L2:Y4">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z1 A5:Z20 A2:H4 L2:Z4">
-    <cfRule type="cellIs" dxfId="11" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14080,22 +14136,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15883,12 +15939,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18060,17 +18116,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19857,22 +19913,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="54" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21660,22 +21716,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21689,12 +21745,12 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
@@ -21761,18 +21817,21 @@
       <c r="T1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="2"/>
+      <c r="U1" s="26">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>::::)(:::)(::N::::::</v>
+        <v>::::)(:::)(::N::::::0</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'::::)(:::)(::N::::::',</v>
+        <v>'::::)(:::)(::N::::::0',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -21836,18 +21895,21 @@
       <c r="T2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="6"/>
+      <c r="U2" s="26">
+        <f t="shared" ref="U2:U20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:)         () ()  (:</v>
+        <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v>:)         () ()  (:1</v>
       </c>
       <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>':)         () ()  (:',</v>
+        <f t="shared" ref="AB2:AB25" si="2">"'"&amp;AA2&amp;"',"</f>
+        <v>':)         () ()  (:1',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -21911,18 +21973,21 @@
       <c r="T3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="6"/>
+      <c r="U3" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
-        <f t="shared" si="0"/>
-        <v>:   l              :</v>
+        <f t="shared" si="1"/>
+        <v>:   l              :2</v>
       </c>
       <c r="AB3" t="str">
-        <f t="shared" si="1"/>
-        <v>':   l              :',</v>
+        <f t="shared" si="2"/>
+        <v>':   l              :2',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -21986,18 +22051,21 @@
       <c r="T4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="6"/>
+      <c r="U4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
-        <f t="shared" si="0"/>
-        <v>)                /::</v>
+        <f t="shared" si="1"/>
+        <v>)                /::3</v>
       </c>
       <c r="AB4" t="str">
-        <f t="shared" si="1"/>
-        <v>')                /::',</v>
+        <f t="shared" si="2"/>
+        <v>')                /::3',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -22061,18 +22129,21 @@
       <c r="T5" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="6"/>
+      <c r="U5" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
-        <f t="shared" si="0"/>
-        <v>\      /\        :ee</v>
+        <f t="shared" si="1"/>
+        <v>\      /\        :ee4</v>
       </c>
       <c r="AB5" t="str">
-        <f t="shared" si="1"/>
-        <v>'\      /\        :ee',</v>
+        <f t="shared" si="2"/>
+        <v>'\      /\        :ee4',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -22136,18 +22207,21 @@
       <c r="T6" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="U6" s="6"/>
+      <c r="U6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
-        <f t="shared" si="0"/>
-        <v>:      (::\      :ee</v>
+        <f t="shared" si="1"/>
+        <v>:      (::\      :ee5</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" si="1"/>
-        <v>':      (::\      :ee',</v>
+        <f t="shared" si="2"/>
+        <v>':      (::\      :ee5',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -22211,18 +22285,21 @@
       <c r="T7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
-        <f t="shared" si="0"/>
-        <v>:  /\   :::      (::</v>
+        <f t="shared" si="1"/>
+        <v>:  /\   :::      (::6</v>
       </c>
       <c r="AB7" t="str">
-        <f t="shared" si="1"/>
-        <v>':  /\   :::      (::',</v>
+        <f t="shared" si="2"/>
+        <v>':  /\   :::      (::6',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -22286,18 +22363,21 @@
       <c r="T8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="6"/>
+      <c r="U8" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
       <c r="AA8" t="str">
-        <f t="shared" si="0"/>
-        <v>:  ::\  (::\       :</v>
+        <f t="shared" si="1"/>
+        <v>:  ::\  (::\       :7</v>
       </c>
       <c r="AB8" t="str">
-        <f t="shared" si="1"/>
-        <v>':  ::\  (::\       :',</v>
+        <f t="shared" si="2"/>
+        <v>':  ::\  (::\       :7',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -22361,18 +22441,21 @@
       <c r="T9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="6"/>
+      <c r="U9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
-        <f t="shared" si="0"/>
-        <v>)  (:)    ()      /:</v>
+        <f t="shared" si="1"/>
+        <v>)  (:)    ()      /:8</v>
       </c>
       <c r="AB9" t="str">
-        <f t="shared" si="1"/>
-        <v>')  (:)    ()      /:',</v>
+        <f t="shared" si="2"/>
+        <v>')  (:)    ()      /:8',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -22436,18 +22519,21 @@
       <c r="T10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
-        <f t="shared" si="0"/>
-        <v>W             /\   E</v>
+        <f t="shared" si="1"/>
+        <v>W             /\   E9</v>
       </c>
       <c r="AB10" t="str">
-        <f t="shared" si="1"/>
-        <v>'W             /\   E',</v>
+        <f t="shared" si="2"/>
+        <v>'W             /\   E9',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -22511,18 +22597,21 @@
       <c r="T11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="6"/>
+      <c r="U11" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
-        <f t="shared" si="0"/>
-        <v>:\            ()  (:</v>
+        <f t="shared" si="1"/>
+        <v>:\            ()  (:10</v>
       </c>
       <c r="AB11" t="str">
-        <f t="shared" si="1"/>
-        <v>':\            ()  (:',</v>
+        <f t="shared" si="2"/>
+        <v>':\            ()  (:10',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -22586,18 +22675,21 @@
       <c r="T12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="6"/>
+      <c r="U12" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
-        <f t="shared" si="0"/>
-        <v>::                 :</v>
+        <f t="shared" si="1"/>
+        <v>::                 :11</v>
       </c>
       <c r="AB12" t="str">
-        <f t="shared" si="1"/>
-        <v>'::                 :',</v>
+        <f t="shared" si="2"/>
+        <v>'::                 :11',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -22661,18 +22753,21 @@
       <c r="T13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
-        <f t="shared" si="0"/>
-        <v>:)    /:\          (</v>
+        <f t="shared" si="1"/>
+        <v>:)    /:\          (12</v>
       </c>
       <c r="AB13" t="str">
-        <f t="shared" si="1"/>
-        <v>':)    /:\          (',</v>
+        <f t="shared" si="2"/>
+        <v>':)    /:\          (12',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -22736,18 +22831,21 @@
       <c r="T14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="6"/>
+      <c r="U14" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
-        <f t="shared" si="0"/>
-        <v>:     (:)          /</v>
+        <f t="shared" si="1"/>
+        <v>:     (:)          /13</v>
       </c>
       <c r="AB14" t="str">
-        <f t="shared" si="1"/>
-        <v>':     (:)          /',</v>
+        <f t="shared" si="2"/>
+        <v>':     (:)          /13',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -22811,18 +22909,21 @@
       <c r="T15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
-        <f t="shared" si="0"/>
-        <v>)           /:\    :</v>
+        <f t="shared" si="1"/>
+        <v>)           /:\    :14</v>
       </c>
       <c r="AB15" t="str">
-        <f t="shared" si="1"/>
-        <v>')           /:\    :',</v>
+        <f t="shared" si="2"/>
+        <v>')           /:\    :14',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -22886,18 +22987,21 @@
       <c r="T16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="6"/>
+      <c r="U16" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
-        <f t="shared" si="0"/>
-        <v>\           ::)   /:</v>
+        <f t="shared" si="1"/>
+        <v>\           ::)   /:15</v>
       </c>
       <c r="AB16" t="str">
-        <f t="shared" si="1"/>
-        <v>'\           ::)   /:',</v>
+        <f t="shared" si="2"/>
+        <v>'\           ::)   /:15',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -22961,18 +23065,21 @@
       <c r="T17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="6"/>
+      <c r="U17" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
-        <f t="shared" si="0"/>
-        <v>:           :)    ::</v>
+        <f t="shared" si="1"/>
+        <v>:           :)    ::16</v>
       </c>
       <c r="AB17" t="str">
-        <f t="shared" si="1"/>
-        <v>':           :)    ::',</v>
+        <f t="shared" si="2"/>
+        <v>':           :)    ::16',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -23036,18 +23143,21 @@
       <c r="T18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="6"/>
+      <c r="U18" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
-        <f t="shared" si="0"/>
-        <v>:  /:\     /:H   /::</v>
+        <f t="shared" si="1"/>
+        <v>:  /:\     /:H   /::17</v>
       </c>
       <c r="AB18" t="str">
-        <f t="shared" si="1"/>
-        <v>':  /:\     /:H   /::',</v>
+        <f t="shared" si="2"/>
+        <v>':  /:\     /:H   /::17',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -23111,18 +23221,21 @@
       <c r="T19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="6"/>
+      <c r="U19" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
-        <f t="shared" si="0"/>
-        <v>:\ :::\   /::\   :::</v>
+        <f t="shared" si="1"/>
+        <v>:\ :::\   /::\   :::18</v>
       </c>
       <c r="AB19" t="str">
-        <f t="shared" si="1"/>
-        <v>':\ :::\   /::\   :::',</v>
+        <f t="shared" si="2"/>
+        <v>':\ :::\   /::\   :::18',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -23186,53 +23299,116 @@
       <c r="T20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="6"/>
+      <c r="U20" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
       <c r="AA20" t="str">
-        <f t="shared" si="0"/>
-        <v>:::::::\S/::::::::::</v>
+        <f t="shared" si="1"/>
+        <v>:::::::\S/::::::::::19</v>
       </c>
       <c r="AB20" t="str">
-        <f t="shared" si="1"/>
-        <v>':::::::\S/::::::::::',</v>
+        <f t="shared" si="2"/>
+        <v>':::::::\S/::::::::::19',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="A21" s="26">
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I21" s="26">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J21" s="26">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M21" s="26">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N21" s="26">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="O21" s="26">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q21" s="26">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="R21" s="26">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S21" s="26">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T21" s="26">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>012345678910111213141516171819</v>
       </c>
       <c r="AB21" t="str">
-        <f t="shared" si="1"/>
-        <v>'',</v>
+        <f t="shared" si="2"/>
+        <v>'012345678910111213141516171819',</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
@@ -23262,11 +23438,11 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -23297,11 +23473,11 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -23332,11 +23508,11 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -23367,11 +23543,11 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AB25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
@@ -23402,13 +23578,33 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="46" priority="2">
+  <conditionalFormatting sqref="A1:T20 A22:Y25 U21:Y21 V1:Y20">
+    <cfRule type="expression" dxfId="54" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:T20 A22:Z25 U21:Z21 V1:Z20">
+    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U20">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U20">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25196,22 +25392,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26999,22 +27195,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="46" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28801,22 +28997,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30603,22 +30799,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32406,22 +32602,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5918" uniqueCount="231">
   <si>
     <t>width</t>
   </si>
@@ -1730,6 +1730,9 @@
   <si>
     <t>H</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Z</t>
+  </si>
 </sst>
 </file>
 
@@ -1962,35 +1965,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
@@ -2037,6 +2012,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5131,12 +5148,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5625,7 +5642,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>11</v>
@@ -5679,11 +5696,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>\    /w)    w      :</v>
+        <v>\   Z/w)    w      :</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'\    /w)    w      :',</v>
+        <v>'\   Z/w)    w      :',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -6108,7 +6125,7 @@
         <v>6</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>6</v>
@@ -6129,11 +6146,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>\        `         :</v>
+        <v>\        `     Z   :</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'\        `         :',</v>
+        <v>'\        `     Z   :',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -6327,7 +6344,7 @@
         <v>6</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>6</v>
@@ -6354,11 +6371,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:wwww   B`B      /::</v>
+        <v>:wwww   B`B  Z   /::</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':wwww   B`B      /::',</v>
+        <v>':wwww   B`B  Z   /::',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -6924,22 +6941,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="32" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="31" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="29" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8727,22 +8744,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="27" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="25" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8755,7 +8772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -9090,7 +9107,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
@@ -9135,11 +9152,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:         /:eeeeewwe</v>
+        <v>:      Z  /:eeeeewwe</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':         /:eeeeewwe',</v>
+        <v>':      Z  /:eeeeewwe',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -9153,7 +9170,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>6</v>
@@ -9210,11 +9227,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>)        B:eeeewwwww</v>
+        <v>)  Z     B:eeeewwwww</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>')        B:eeeewwwww',</v>
+        <v>')  Z     B:eeeewwwww',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -9828,7 +9845,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>6</v>
@@ -9837,7 +9854,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>6</v>
@@ -9885,11 +9902,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>\         (:eeeeewww</v>
+        <v>\  Z  Z   (:eeeeewww</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'\         (:eeeeewww',</v>
+        <v>'\  Z  Z   (:eeeeewww',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -10140,7 +10157,7 @@
         <v>228</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>6</v>
@@ -10185,11 +10202,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>eee:::\  =    ::eee:</v>
+        <v>eee:::\Z =    ::eee:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'eee:::\  =    ::eee:',</v>
+        <v>'eee:::\Z =    ::eee:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -10530,22 +10547,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="21" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10917,7 +10934,7 @@
         <v>6</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>6</v>
@@ -10938,11 +10955,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:                  (</v>
+        <v>:              Z   (</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':                  (',</v>
+        <v>':              Z   (',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -11523,7 +11540,7 @@
         <v>6</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>6</v>
@@ -11538,11 +11555,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>:       w`w        /</v>
+        <v>:       w`w      Z /</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>':       w`w        /',</v>
+        <v>':       w`w      Z /',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -11628,7 +11645,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>6</v>
@@ -11664,7 +11681,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>6</v>
@@ -11688,11 +11705,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v>)        `         :</v>
+        <v>) Z      `    Z    :</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>')        `         :',</v>
+        <v>') Z      `    Z    :',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -11715,7 +11732,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>6</v>
@@ -11763,11 +11780,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>\        `         :</v>
+        <v>\     Z  `         :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'\        `         :',</v>
+        <v>'\     Z  `         :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -11934,7 +11951,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>6</v>
@@ -11961,7 +11978,7 @@
         <v>6</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O19" s="12" t="s">
         <v>6</v>
@@ -11988,11 +12005,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\     ww`ww     ;=:</v>
+        <v>:\  Z  ww`ww Z   ;=:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\     ww`ww     ;=:',</v>
+        <v>':\  Z  ww`ww Z   ;=:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -12333,22 +12350,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y1 A5:Y20 A2:H4 L2:Y4">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z1 A5:Z20 A2:H4 L2:Z4">
-    <cfRule type="cellIs" dxfId="19" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14136,22 +14153,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14162,21 +14179,21 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+      <selection activeCell="Z1" sqref="Z1:Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -14242,16 +14259,20 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
-      <c r="AA1" t="str">
+      <c r="Z1" s="26">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
+      <c r="AB1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
         <v>:::::::::N::::::::::</v>
       </c>
-      <c r="AB1" t="str">
-        <f>"'"&amp;AA1&amp;"',"</f>
+      <c r="AC1" t="str">
+        <f>"'"&amp;AB1&amp;"',"</f>
         <v>':::::::::N::::::::::',</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
@@ -14317,16 +14338,20 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
-      <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+      <c r="Z2" s="26">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
         <v>() (:::)```   (:::::</v>
       </c>
-      <c r="AB2" t="str">
-        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+      <c r="AC2" t="str">
+        <f t="shared" ref="AC2:AC25" si="2">"'"&amp;AB2&amp;"',"</f>
         <v>'() (:::)```   (:::::',</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>228</v>
       </c>
@@ -14392,16 +14417,20 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
-      <c r="AA3" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z3" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
         <v>\   (:) ```     ::::</v>
       </c>
-      <c r="AB3" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC3" t="str">
+        <f t="shared" si="2"/>
         <v>'\   (:) ```     ::::',</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
@@ -14467,16 +14496,20 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
-      <c r="AA4" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
         <v>:               (::)</v>
       </c>
-      <c r="AB4" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC4" t="str">
+        <f t="shared" si="2"/>
         <v>':               (::)',</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
@@ -14542,16 +14575,20 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
-      <c r="AA5" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z5" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
         <v>:                  /</v>
       </c>
-      <c r="AB5" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC5" t="str">
+        <f t="shared" si="2"/>
         <v>':                  /',</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
@@ -14617,16 +14654,20 @@
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
-      <c r="AA6" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
         <v>:                 /:</v>
       </c>
-      <c r="AB6" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC6" t="str">
+        <f t="shared" si="2"/>
         <v>':                 /:',</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
@@ -14692,16 +14733,20 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
-      <c r="AA7" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z7" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
         <v>:\     wwwww     /::</v>
       </c>
-      <c r="AB7" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC7" t="str">
+        <f t="shared" si="2"/>
         <v>':\     wwwww     /::',</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>30</v>
       </c>
@@ -14767,16 +14812,20 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
-      <c r="AA8" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z8" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
         <v>wwwww  w£££w  wwwwww</v>
       </c>
-      <c r="AB8" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC8" t="str">
+        <f t="shared" si="2"/>
         <v>'wwwww  w£££w  wwwwww',</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -14842,16 +14891,20 @@
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
-      <c r="AA9" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
         <v>!!!!w  w£££w  weeeee</v>
       </c>
-      <c r="AB9" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC9" t="str">
+        <f t="shared" si="2"/>
         <v>'!!!!w  w£££w  weeeee',</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>41</v>
       </c>
@@ -14917,16 +14970,20 @@
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
-      <c r="AA10" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z10" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
         <v>!!!!w  w£££w  weeeee</v>
       </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC10" t="str">
+        <f t="shared" si="2"/>
         <v>'!!!!w  w£££w  weeeee',</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>41</v>
       </c>
@@ -14992,16 +15049,20 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
-      <c r="AA11" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z11" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
         <v>!!!!w  wwwww  weeeee</v>
       </c>
-      <c r="AB11" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC11" t="str">
+        <f t="shared" si="2"/>
         <v>'!!!!w  wwwww  weeeee',</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -15067,16 +15128,20 @@
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
-      <c r="AA12" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z12" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
         <v>!!!!w         weeeee</v>
       </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC12" t="str">
+        <f t="shared" si="2"/>
         <v>'!!!!w         weeeee',</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
@@ -15142,16 +15207,20 @@
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
-      <c r="AA13" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z13" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
         <v>wwwww         wwwwww</v>
       </c>
-      <c r="AB13" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC13" t="str">
+        <f t="shared" si="2"/>
         <v>'wwwww         wwwwww',</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
@@ -15217,16 +15286,20 @@
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
-      <c r="AA14" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z14" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
         <v>:)     B   B     (::</v>
       </c>
-      <c r="AB14" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC14" t="str">
+        <f t="shared" si="2"/>
         <v>':)     B   B     (::',</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
@@ -15292,16 +15365,20 @@
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
-      <c r="AA15" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
         <v>)      w   w       (</v>
       </c>
-      <c r="AB15" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC15" t="str">
+        <f t="shared" si="2"/>
         <v>')      w   w       (',</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>228</v>
       </c>
@@ -15367,16 +15444,20 @@
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
-      <c r="AA16" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z16" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
         <v>\      w`¬`w       /</v>
       </c>
-      <c r="AB16" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC16" t="str">
+        <f t="shared" si="2"/>
         <v>'\      w`¬`w       /',</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
@@ -15442,16 +15523,20 @@
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
-      <c r="AA17" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z17" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
         <v>:   /::w`¬`w       :</v>
       </c>
-      <c r="AB17" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC17" t="str">
+        <f t="shared" si="2"/>
         <v>':   /::w`¬`w       :',</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>2</v>
       </c>
@@ -15517,16 +15602,20 @@
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
-      <c r="AA18" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z18" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
         <v>:   :::w`¬`w\      :</v>
       </c>
-      <c r="AB18" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC18" t="str">
+        <f t="shared" si="2"/>
         <v>':   :::w`¬`w\      :',</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2</v>
       </c>
@@ -15592,16 +15681,20 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
-      <c r="AA19" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z19" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
         <v>:\ /:::w`L`w:\    /:</v>
       </c>
-      <c r="AB19" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC19" t="str">
+        <f t="shared" si="2"/>
         <v>':\ /:::w`L`w:\    /:',</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
@@ -15667,111 +15760,115 @@
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
-      <c r="AA20" t="str">
-        <f t="shared" si="0"/>
+      <c r="Z20" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
         <v>:::::::::::::::\/:::</v>
       </c>
-      <c r="AB20" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC20" t="str">
+        <f t="shared" si="2"/>
         <v>':::::::::::::::\/:::',</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <f>COLUMN()</f>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <f>COLUMN()-1</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="26">
+        <f t="shared" ref="B21:T21" si="3">COLUMN()-1</f>
         <v>1</v>
       </c>
-      <c r="B21" s="25">
-        <f>COLUMN()</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="25">
-        <f>COLUMN()</f>
+      <c r="C21" s="26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D21" s="25">
-        <f>COLUMN()</f>
+      <c r="E21" s="26">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E21" s="25">
-        <f>COLUMN()</f>
+      <c r="F21" s="26">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="F21" s="25">
-        <f>COLUMN()</f>
-        <v>6</v>
-      </c>
-      <c r="G21" s="25">
-        <f>COLUMN()</f>
+      <c r="G21" s="26">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="H21" s="25">
-        <f>COLUMN()</f>
+      <c r="I21" s="26">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I21" s="25">
-        <f>COLUMN()</f>
+      <c r="J21" s="26">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="J21" s="25">
-        <f>COLUMN()</f>
+      <c r="K21" s="26">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K21" s="25">
-        <f>COLUMN()</f>
+      <c r="L21" s="26">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L21" s="25">
-        <f>COLUMN()</f>
+      <c r="M21" s="26">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M21" s="25">
-        <f>COLUMN()</f>
+      <c r="N21" s="26">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="N21" s="25">
-        <f>COLUMN()</f>
+      <c r="O21" s="26">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="O21" s="25">
-        <f>COLUMN()</f>
+      <c r="P21" s="26">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P21" s="25">
-        <f>COLUMN()</f>
+      <c r="Q21" s="26">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Q21" s="25">
-        <f>COLUMN()</f>
+      <c r="R21" s="26">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="R21" s="25">
-        <f>COLUMN()</f>
+      <c r="S21" s="26">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="S21" s="25">
-        <f>COLUMN()</f>
+      <c r="T21" s="26">
+        <f t="shared" si="3"/>
         <v>19</v>
-      </c>
-      <c r="T21" s="25">
-        <f>COLUMN()</f>
-        <v>20</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
-      <c r="AA21" t="str">
-        <f t="shared" si="0"/>
-        <v>1234567891011121314151617181920</v>
-      </c>
       <c r="AB21" t="str">
         <f t="shared" si="1"/>
-        <v>'1234567891011121314151617181920',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <v>012345678910111213141516171819</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="2"/>
+        <v>'012345678910111213141516171819',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -15797,16 +15894,16 @@
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
-      <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB22" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC22" t="str">
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -15832,16 +15929,16 @@
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
-      <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB23" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC23" t="str">
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -15867,16 +15964,16 @@
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
-      <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB24" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC24" t="str">
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -15902,16 +15999,16 @@
       <c r="W25" s="10"/>
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
-      <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB25" t="str">
-        <f t="shared" si="1"/>
+      <c r="AC25" t="str">
+        <f t="shared" si="2"/>
         <v>'',</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -15919,7 +16016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -15927,25 +16024,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A1:Y20 A21:Z25">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z20">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18116,17 +18223,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19913,22 +20020,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="64" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21716,22 +21823,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="60" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21744,8 +21851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21817,21 +21924,22 @@
       <c r="T1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="26">
-        <f>ROW()-1</f>
-        <v>0</v>
-      </c>
+      <c r="U1" s="26"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="3"/>
+      <c r="Z1" s="26">
+        <f>ROW()-1</f>
+        <v>0</v>
+      </c>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>::::)(:::)(::N::::::0</v>
+        <v>::::)(:::)(::N::::::</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>'::::)(:::)(::N::::::0',</v>
+        <v>'::::)(:::)(::N::::::',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -21895,21 +22003,22 @@
       <c r="T2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="26">
-        <f t="shared" ref="U2:U20" si="0">ROW()-1</f>
-        <v>1</v>
-      </c>
+      <c r="U2" s="26"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
+      <c r="Z2" s="26">
+        <f t="shared" ref="Z2:Z20" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="1">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>:)         () ()  (:1</v>
+        <v>:)         () ()  (:</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="2">"'"&amp;AA2&amp;"',"</f>
-        <v>':)         () ()  (:1',</v>
+        <v>':)         () ()  (:',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -21973,21 +22082,22 @@
       <c r="T3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
+      <c r="U3" s="26"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="7"/>
+      <c r="Z3" s="26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="AA3" t="str">
         <f t="shared" si="1"/>
-        <v>:   l              :2</v>
+        <v>:   l              :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="2"/>
-        <v>':   l              :2',</v>
+        <v>':   l              :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -22051,21 +22161,22 @@
       <c r="T4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="U4" s="26"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="7"/>
+      <c r="Z4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="AA4" t="str">
         <f t="shared" si="1"/>
-        <v>)                /::3</v>
+        <v>)                /::</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="2"/>
-        <v>')                /::3',</v>
+        <v>')                /::',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -22109,7 +22220,7 @@
         <v>6</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>6</v>
@@ -22129,21 +22240,22 @@
       <c r="T5" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="U5" s="26"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="7"/>
+      <c r="Z5" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="AA5" t="str">
         <f t="shared" si="1"/>
-        <v>\      /\        :ee4</v>
+        <v>\      /\    Z   :ee</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="2"/>
-        <v>'\      /\        :ee4',</v>
+        <v>'\      /\    Z   :ee',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -22207,21 +22319,22 @@
       <c r="T6" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="U6" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="U6" s="26"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="7"/>
+      <c r="Z6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="AA6" t="str">
         <f t="shared" si="1"/>
-        <v>:      (::\      :ee5</v>
+        <v>:      (::\      :ee</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="2"/>
-        <v>':      (::\      :ee5',</v>
+        <v>':      (::\      :ee',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -22285,21 +22398,22 @@
       <c r="T7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="U7" s="26"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="7"/>
+      <c r="Z7" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="AA7" t="str">
         <f t="shared" si="1"/>
-        <v>:  /\   :::      (::6</v>
+        <v>:  /\   :::      (::</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="2"/>
-        <v>':  /\   :::      (::6',</v>
+        <v>':  /\   :::      (::',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -22363,21 +22477,22 @@
       <c r="T8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="U8" s="26"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="7"/>
+      <c r="Z8" s="26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="AA8" t="str">
         <f t="shared" si="1"/>
-        <v>:  ::\  (::\       :7</v>
+        <v>:  ::\  (::\       :</v>
       </c>
       <c r="AB8" t="str">
         <f t="shared" si="2"/>
-        <v>':  ::\  (::\       :7',</v>
+        <v>':  ::\  (::\       :',</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -22441,21 +22556,22 @@
       <c r="T9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="U9" s="26"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="7"/>
+      <c r="Z9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="AA9" t="str">
         <f t="shared" si="1"/>
-        <v>)  (:)    ()      /:8</v>
+        <v>)  (:)    ()      /:</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="2"/>
-        <v>')  (:)    ()      /:8',</v>
+        <v>')  (:)    ()      /:',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
@@ -22519,21 +22635,22 @@
       <c r="T10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="26">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="U10" s="26"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="7"/>
+      <c r="Z10" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="AA10" t="str">
         <f t="shared" si="1"/>
-        <v>W             /\   E9</v>
+        <v>W             /\   E</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="2"/>
-        <v>'W             /\   E9',</v>
+        <v>'W             /\   E',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -22597,21 +22714,22 @@
       <c r="T11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="26">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+      <c r="U11" s="26"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="7"/>
+      <c r="Z11" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="AA11" t="str">
         <f t="shared" si="1"/>
-        <v>:\            ()  (:10</v>
+        <v>:\            ()  (:</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="2"/>
-        <v>':\            ()  (:10',</v>
+        <v>':\            ()  (:',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -22675,21 +22793,22 @@
       <c r="T12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="26">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="U12" s="26"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
+      <c r="Z12" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="AA12" t="str">
         <f t="shared" si="1"/>
-        <v>::                 :11</v>
+        <v>::                 :</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="2"/>
-        <v>'::                 :11',</v>
+        <v>'::                 :',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -22753,21 +22872,22 @@
       <c r="T13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="U13" s="26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="U13" s="26"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="7"/>
+      <c r="Z13" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="AA13" t="str">
         <f t="shared" si="1"/>
-        <v>:)    /:\          (12</v>
+        <v>:)    /:\          (</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="2"/>
-        <v>':)    /:\          (12',</v>
+        <v>':)    /:\          (',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -22784,7 +22904,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>6</v>
@@ -22831,21 +22951,22 @@
       <c r="T14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="26">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+      <c r="U14" s="26"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
+      <c r="Z14" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="AA14" t="str">
         <f t="shared" si="1"/>
-        <v>:     (:)          /13</v>
+        <v>:   Z (:)          /</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="2"/>
-        <v>':     (:)          /13',</v>
+        <v>':   Z (:)          /',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -22909,21 +23030,22 @@
       <c r="T15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="26">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="U15" s="26"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="7"/>
+      <c r="Z15" s="26">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="AA15" t="str">
         <f t="shared" si="1"/>
-        <v>)           /:\    :14</v>
+        <v>)           /:\    :</v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="2"/>
-        <v>')           /:\    :14',</v>
+        <v>')           /:\    :',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -22987,21 +23109,22 @@
       <c r="T16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="26">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="U16" s="26"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="7"/>
+      <c r="Z16" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="AA16" t="str">
         <f t="shared" si="1"/>
-        <v>\           ::)   /:15</v>
+        <v>\           ::)   /:</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="2"/>
-        <v>'\           ::)   /:15',</v>
+        <v>'\           ::)   /:',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -23065,21 +23188,22 @@
       <c r="T17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="26">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="U17" s="26"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="7"/>
+      <c r="Z17" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="AA17" t="str">
         <f t="shared" si="1"/>
-        <v>:           :)    ::16</v>
+        <v>:           :)    ::</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="2"/>
-        <v>':           :)    ::16',</v>
+        <v>':           :)    ::',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -23143,21 +23267,22 @@
       <c r="T18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="26">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="U18" s="26"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="7"/>
+      <c r="Z18" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="AA18" t="str">
         <f t="shared" si="1"/>
-        <v>:  /:\     /:H   /::17</v>
+        <v>:  /:\     /:H   /::</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="2"/>
-        <v>':  /:\     /:H   /::17',</v>
+        <v>':  /:\     /:H   /::',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -23221,21 +23346,22 @@
       <c r="T19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="26">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="U19" s="26"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="7"/>
+      <c r="Z19" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="AA19" t="str">
         <f t="shared" si="1"/>
-        <v>:\ :::\   /::\   :::18</v>
+        <v>:\ :::\   /::\   :::</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="2"/>
-        <v>':\ :::\   /::\   :::18',</v>
+        <v>':\ :::\   /::\   :::',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -23299,21 +23425,22 @@
       <c r="T20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="26">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
+      <c r="U20" s="26"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="7"/>
+      <c r="Z20" s="26">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="AA20" t="str">
         <f t="shared" si="1"/>
-        <v>:::::::\S/::::::::::19</v>
+        <v>:::::::\S/::::::::::</v>
       </c>
       <c r="AB20" t="str">
         <f t="shared" si="2"/>
-        <v>':::::::\S/::::::::::19',</v>
+        <v>':::::::\S/::::::::::',</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -23579,31 +23706,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T20 A22:Y25 U21:Y21 V1:Y20">
+    <cfRule type="expression" dxfId="56" priority="8">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:T20 A22:Z25 U21:Z21 V1:Y20">
+    <cfRule type="cellIs" dxfId="55" priority="7" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:T21">
     <cfRule type="expression" dxfId="54" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:T20 A22:Z25 U21:Z21 V1:Z20">
+  <conditionalFormatting sqref="A21:T21">
     <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="7" priority="4">
+  <conditionalFormatting sqref="U1:U20">
+    <cfRule type="expression" dxfId="52" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="U1:U20">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U20">
+  <conditionalFormatting sqref="Z1:Z20">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U20">
+  <conditionalFormatting sqref="Z1:Z20">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
@@ -24390,7 +24527,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>6</v>
@@ -24447,11 +24584,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>:      weeeeeeeeeeee</v>
+        <v>:  Z   weeeeeeeeeeee</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>':      weeeeeeeeeeee',</v>
+        <v>':  Z   weeeeeeeeeeee',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -24999,7 +25136,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>6</v>
@@ -25023,7 +25160,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>11</v>
@@ -25047,11 +25184,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:::\    /\     /::::</v>
+        <v>:::\  Z /\    Z/::::</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':::\    /\     /::::',</v>
+        <v>':::\  Z /\    Z/::::',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -25392,22 +25529,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="49" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25421,7 +25558,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25680,7 +25817,7 @@
         <v>6</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>6</v>
@@ -25725,11 +25862,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>:                 (:</v>
+        <v>:      Z          (:</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>':                 (:',</v>
+        <v>':      Z          (:',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -25764,7 +25901,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>6</v>
@@ -25800,11 +25937,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:\                 :</v>
+        <v>:\        Z        :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':\                 :',</v>
+        <v>':\        Z        :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -26157,7 +26294,7 @@
         <v>6</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>6</v>
@@ -26175,11 +26312,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>ww`    ::::::)     :</v>
+        <v>ww`    ::::::)  Z  :</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'ww`    ::::::)     :',</v>
+        <v>'ww`    ::::::)  Z  :',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -26268,7 +26405,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>6</v>
@@ -26325,11 +26462,11 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v>:w      (:)      /::</v>
+        <v>:w Z    (:)      /::</v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>':w      (:)      /::',</v>
+        <v>':w Z    (:)      /::',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -26580,7 +26717,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>6</v>
@@ -26625,11 +26762,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>:        (:\       :</v>
+        <v>:      Z (:\       :</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':        (:\       :',</v>
+        <v>':      Z (:\       :',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -26679,7 +26816,7 @@
         <v>6</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>6</v>
@@ -26700,11 +26837,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>)        /::   B  -:</v>
+        <v>)        /::    Z  -:</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>')        /::   B  -:',</v>
+        <v>')        /::    Z  -:',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -26805,7 +26942,7 @@
         <v>6</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>11</v>
@@ -26850,11 +26987,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>:\      /:::\     /:</v>
+        <v>:\     Z/:::\     /:</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':\      /:::\     /:',</v>
+        <v>':\     Z/:::\     /:',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -27195,22 +27332,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="47" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="45" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28997,22 +29134,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="43" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="41" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29353,7 +29490,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>6</v>
@@ -29383,7 +29520,7 @@
         <v>6</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>6</v>
@@ -29404,11 +29541,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>:\                 (</v>
+        <v>:\   Z         Z   (</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>':\                 (',</v>
+        <v>':\   Z         Z   (',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -30286,7 +30423,7 @@
         <v>6</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>6</v>
@@ -30304,11 +30441,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>:)                 /</v>
+        <v>:)              Z  /</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>':)                 /',</v>
+        <v>':)              Z  /',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -30799,22 +30936,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="39" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="37" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32602,22 +32739,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="33" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/game_template/model/data/floor builder Level 4.xlsx
+++ b/game_template/model/data/floor builder Level 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7770" windowHeight="540" tabRatio="904" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Reverser" sheetId="33" r:id="rId1"/>
@@ -1965,35 +1965,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <fill>
         <patternFill>
@@ -2026,6 +1998,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5148,12 +5134,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6941,22 +6927,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8744,22 +8730,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="23" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8772,7 +8758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB20" sqref="AB1:AB20"/>
     </sheetView>
   </sheetViews>
@@ -10547,22 +10533,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12350,22 +12336,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y1 A5:Y20 A2:H4 L2:Y4">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z1 A5:Z20 A2:H4 L2:Z4">
-    <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14153,22 +14139,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16036,22 +16022,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y20 A21:Z25">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18223,17 +18209,17 @@
     <sortCondition ref="B2:B66"/>
   </sortState>
   <conditionalFormatting sqref="D1:D65 D67:D1048576">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K65">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20020,22 +20006,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="64" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="61" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21823,22 +21809,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="59" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="57" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23706,42 +23692,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T20 A22:Y25 U21:Y21 V1:Y20">
-    <cfRule type="expression" dxfId="56" priority="8">
+    <cfRule type="expression" dxfId="54" priority="8">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20 A22:Z25 U21:Z21 V1:Y20">
-    <cfRule type="cellIs" dxfId="55" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="7" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="54" priority="6">
+    <cfRule type="expression" dxfId="52" priority="6">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="53" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="5" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U20">
-    <cfRule type="expression" dxfId="52" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U20">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:Z20">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25529,22 +25515,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="50" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="49" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27332,22 +27318,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="45" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="40" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="43" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29134,22 +29120,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="42" priority="4">
+    <cfRule type="expression" dxfId="38" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="41" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="39" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29162,8 +29148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB1:AB20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29607,7 +29593,7 @@
         <v>6</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -29616,11 +29602,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>w:                 :</v>
+        <v>w:                 /</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'w:                 :',</v>
+        <v>'w:                 /',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -30936,22 +30922,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A22:Y25 U21:Y21 A1:Y20">
-    <cfRule type="expression" dxfId="38" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:Z25 U21:Z21 A1:Z20">
-    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32739,22 +32725,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y20 A22:Y25 U21:Y21">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="30" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z20 A22:Z25 U21:Z21">
-    <cfRule type="cellIs" dxfId="33" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:T21">
-    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
